--- a/out/Produção_Pituba_Base_P16_AEPP.xlsx
+++ b/out/Produção_Pituba_Base_P16_AEPP.xlsx
@@ -7,15 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Produção Anual" sheetId="1" r:id="rId1"/>
-    <sheet name="Produção Trimestral" sheetId="2" r:id="rId2"/>
+    <sheet name="Prod_Anual" sheetId="1" r:id="rId1"/>
+    <sheet name="Prod_Tri_PE" sheetId="2" r:id="rId2"/>
+    <sheet name="Financiamento" sheetId="3" r:id="rId3"/>
+    <sheet name="Fluxo_Caixa" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>oil_prod</t>
   </si>
@@ -45,6 +47,57 @@
   </si>
   <si>
     <t>part_esp</t>
+  </si>
+  <si>
+    <t>Saldo_Devedor</t>
+  </si>
+  <si>
+    <t>Juros</t>
+  </si>
+  <si>
+    <t>Amortizacao</t>
+  </si>
+  <si>
+    <t>Pagamento</t>
+  </si>
+  <si>
+    <t>impostos</t>
+  </si>
+  <si>
+    <t>opex_var</t>
+  </si>
+  <si>
+    <t>opex_fixo</t>
+  </si>
+  <si>
+    <t>descom</t>
+  </si>
+  <si>
+    <t>lucro_bruto</t>
+  </si>
+  <si>
+    <t>depreciacao</t>
+  </si>
+  <si>
+    <t>residual</t>
+  </si>
+  <si>
+    <t>lucro_tributavel</t>
+  </si>
+  <si>
+    <t>ir_csll</t>
+  </si>
+  <si>
+    <t>lucro_liquido</t>
+  </si>
+  <si>
+    <t>capex_prod</t>
+  </si>
+  <si>
+    <t>cash_flow</t>
+  </si>
+  <si>
+    <t>cash_flow_disc</t>
   </si>
 </sst>
 </file>
@@ -4685,4 +4738,2014 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B2">
+        <v>2833502573.504581</v>
+      </c>
+      <c r="C2">
+        <v>202222604.7195901</v>
+      </c>
+      <c r="D2">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E2">
+        <v>351354319.1145681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B3">
+        <v>2684370859.109603</v>
+      </c>
+      <c r="C3">
+        <v>192111474.4836106</v>
+      </c>
+      <c r="D3">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E3">
+        <v>341243188.8785886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>46387</v>
+      </c>
+      <c r="B4">
+        <v>2535239144.714625</v>
+      </c>
+      <c r="C4">
+        <v>182000344.2476311</v>
+      </c>
+      <c r="D4">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E4">
+        <v>331132058.6426091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>46752</v>
+      </c>
+      <c r="B5">
+        <v>2386107430.319647</v>
+      </c>
+      <c r="C5">
+        <v>171889214.0116516</v>
+      </c>
+      <c r="D5">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E5">
+        <v>321020928.4066296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>47118</v>
+      </c>
+      <c r="B6">
+        <v>2236975715.924669</v>
+      </c>
+      <c r="C6">
+        <v>161778083.7756721</v>
+      </c>
+      <c r="D6">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E6">
+        <v>310909798.1706501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>47483</v>
+      </c>
+      <c r="B7">
+        <v>2087844001.529691</v>
+      </c>
+      <c r="C7">
+        <v>151666953.5396926</v>
+      </c>
+      <c r="D7">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E7">
+        <v>300798667.9346706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>47848</v>
+      </c>
+      <c r="B8">
+        <v>1938712287.134713</v>
+      </c>
+      <c r="C8">
+        <v>141555823.3037131</v>
+      </c>
+      <c r="D8">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E8">
+        <v>290687537.698691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>48213</v>
+      </c>
+      <c r="B9">
+        <v>1789580572.739735</v>
+      </c>
+      <c r="C9">
+        <v>131444693.0677336</v>
+      </c>
+      <c r="D9">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E9">
+        <v>280576407.4627116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>48579</v>
+      </c>
+      <c r="B10">
+        <v>1640448858.344757</v>
+      </c>
+      <c r="C10">
+        <v>121333562.831754</v>
+      </c>
+      <c r="D10">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E10">
+        <v>270465277.226732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>48944</v>
+      </c>
+      <c r="B11">
+        <v>1491317143.949779</v>
+      </c>
+      <c r="C11">
+        <v>111222432.5957745</v>
+      </c>
+      <c r="D11">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E11">
+        <v>260354146.9907525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>49309</v>
+      </c>
+      <c r="B12">
+        <v>1342185429.554801</v>
+      </c>
+      <c r="C12">
+        <v>101111302.359795</v>
+      </c>
+      <c r="D12">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E12">
+        <v>250243016.754773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>49674</v>
+      </c>
+      <c r="B13">
+        <v>1193053715.159823</v>
+      </c>
+      <c r="C13">
+        <v>91000172.12381551</v>
+      </c>
+      <c r="D13">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E13">
+        <v>240131886.5187935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>50040</v>
+      </c>
+      <c r="B14">
+        <v>1043922000.764845</v>
+      </c>
+      <c r="C14">
+        <v>80889041.88783599</v>
+      </c>
+      <c r="D14">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E14">
+        <v>230020756.282814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>50405</v>
+      </c>
+      <c r="B15">
+        <v>894790286.3698668</v>
+      </c>
+      <c r="C15">
+        <v>70777911.65185648</v>
+      </c>
+      <c r="D15">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E15">
+        <v>219909626.0468345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>50770</v>
+      </c>
+      <c r="B16">
+        <v>745658571.9748888</v>
+      </c>
+      <c r="C16">
+        <v>60666781.41587697</v>
+      </c>
+      <c r="D16">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E16">
+        <v>209798495.810855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>51135</v>
+      </c>
+      <c r="B17">
+        <v>596526857.5799108</v>
+      </c>
+      <c r="C17">
+        <v>50555651.17989746</v>
+      </c>
+      <c r="D17">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E17">
+        <v>199687365.5748754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>51501</v>
+      </c>
+      <c r="B18">
+        <v>447395143.1849328</v>
+      </c>
+      <c r="C18">
+        <v>40444520.94391795</v>
+      </c>
+      <c r="D18">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E18">
+        <v>189576235.3388959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>51866</v>
+      </c>
+      <c r="B19">
+        <v>298263428.7899548</v>
+      </c>
+      <c r="C19">
+        <v>30333390.70793844</v>
+      </c>
+      <c r="D19">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E19">
+        <v>179465105.1029164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>52231</v>
+      </c>
+      <c r="B20">
+        <v>149131714.3949768</v>
+      </c>
+      <c r="C20">
+        <v>20222260.47195894</v>
+      </c>
+      <c r="D20">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E20">
+        <v>169353974.8669369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>52596</v>
+      </c>
+      <c r="B21">
+        <v>-1.192092895507812E-06</v>
+      </c>
+      <c r="C21">
+        <v>10111130.23597943</v>
+      </c>
+      <c r="D21">
+        <v>149131714.394978</v>
+      </c>
+      <c r="E21">
+        <v>159242844.6309574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>52962</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>53327</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>53692</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>54057</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>54423</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>54788</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>55153</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>55518</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>55884</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>56249</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1171578748.286947</v>
+      </c>
+      <c r="N2">
+        <v>-1171578748.286947</v>
+      </c>
+      <c r="O2">
+        <v>-1065071589.35177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2">
+        <v>46022</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>341243188.8785886</v>
+      </c>
+      <c r="N3">
+        <v>-341243188.8785886</v>
+      </c>
+      <c r="O3">
+        <v>-282019164.3624699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2">
+        <v>46387</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>331132058.6426091</v>
+      </c>
+      <c r="N4">
+        <v>-331132058.6426091</v>
+      </c>
+      <c r="O4">
+        <v>-248784416.7112014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2">
+        <v>46752</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>321020928.4066296</v>
+      </c>
+      <c r="N5">
+        <v>-321020928.4066296</v>
+      </c>
+      <c r="O5">
+        <v>-219261613.555515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2">
+        <v>47118</v>
+      </c>
+      <c r="B6">
+        <v>506393129.2899294</v>
+      </c>
+      <c r="C6">
+        <v>97480677.38831142</v>
+      </c>
+      <c r="D6">
+        <v>22738587.45494277</v>
+      </c>
+      <c r="E6">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>292966542.949814</v>
+      </c>
+      <c r="H6">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>181117757.1535805</v>
+      </c>
+      <c r="K6">
+        <v>61580037.43221736</v>
+      </c>
+      <c r="L6">
+        <v>119537719.7213631</v>
+      </c>
+      <c r="M6">
+        <v>310909798.1706501</v>
+      </c>
+      <c r="N6">
+        <v>-79523292.65305346</v>
+      </c>
+      <c r="O6">
+        <v>-49377708.08815433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2">
+        <v>47483</v>
+      </c>
+      <c r="B7">
+        <v>589898277.3052663</v>
+      </c>
+      <c r="C7">
+        <v>113555418.3812638</v>
+      </c>
+      <c r="D7">
+        <v>38606335.21785489</v>
+      </c>
+      <c r="E7">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>344529202.2092864</v>
+      </c>
+      <c r="H7">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>232680416.4130529</v>
+      </c>
+      <c r="K7">
+        <v>79111341.58043799</v>
+      </c>
+      <c r="L7">
+        <v>153569074.8326149</v>
+      </c>
+      <c r="M7">
+        <v>300798667.9346706</v>
+      </c>
+      <c r="N7">
+        <v>-35380807.30582216</v>
+      </c>
+      <c r="O7">
+        <v>-19971543.34839283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2">
+        <v>47848</v>
+      </c>
+      <c r="B8">
+        <v>1095679917.518159</v>
+      </c>
+      <c r="C8">
+        <v>210918384.1222456</v>
+      </c>
+      <c r="D8">
+        <v>80472482.61167327</v>
+      </c>
+      <c r="E8">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>711081729.2873788</v>
+      </c>
+      <c r="H8">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>599232943.4911454</v>
+      </c>
+      <c r="K8">
+        <v>203739200.7869894</v>
+      </c>
+      <c r="L8">
+        <v>395493742.7041559</v>
+      </c>
+      <c r="M8">
+        <v>290687537.698691</v>
+      </c>
+      <c r="N8">
+        <v>216654990.8016984</v>
+      </c>
+      <c r="O8">
+        <v>111178267.3850906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2">
+        <v>48213</v>
+      </c>
+      <c r="B9">
+        <v>1477149281.87682</v>
+      </c>
+      <c r="C9">
+        <v>355252688.2396626</v>
+      </c>
+      <c r="D9">
+        <v>114434959.8417971</v>
+      </c>
+      <c r="E9">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>914254312.2984986</v>
+      </c>
+      <c r="H9">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>802405526.5022652</v>
+      </c>
+      <c r="K9">
+        <v>272817879.0107701</v>
+      </c>
+      <c r="L9">
+        <v>529587647.4914951</v>
+      </c>
+      <c r="M9">
+        <v>280576407.4627116</v>
+      </c>
+      <c r="N9">
+        <v>360860025.825017</v>
+      </c>
+      <c r="O9">
+        <v>168343865.2700453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2">
+        <v>48579</v>
+      </c>
+      <c r="B10">
+        <v>2386964369.721991</v>
+      </c>
+      <c r="C10">
+        <v>708666015.6821678</v>
+      </c>
+      <c r="D10">
+        <v>180282585.0757781</v>
+      </c>
+      <c r="E10">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1404808447.467184</v>
+      </c>
+      <c r="H10">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1292959661.670951</v>
+      </c>
+      <c r="K10">
+        <v>439606284.9681232</v>
+      </c>
+      <c r="L10">
+        <v>853353376.7028275</v>
+      </c>
+      <c r="M10">
+        <v>270465277.226732</v>
+      </c>
+      <c r="N10">
+        <v>694736885.2723289</v>
+      </c>
+      <c r="O10">
+        <v>294636258.4395127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2">
+        <v>48944</v>
+      </c>
+      <c r="B11">
+        <v>2682528862.113804</v>
+      </c>
+      <c r="C11">
+        <v>842285702.4911087</v>
+      </c>
+      <c r="D11">
+        <v>196104054.4955476</v>
+      </c>
+      <c r="E11">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1550931783.630286</v>
+      </c>
+      <c r="H11">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1439082997.834053</v>
+      </c>
+      <c r="K11">
+        <v>489288219.263578</v>
+      </c>
+      <c r="L11">
+        <v>949794778.5704751</v>
+      </c>
+      <c r="M11">
+        <v>260354146.9907525</v>
+      </c>
+      <c r="N11">
+        <v>801289417.3759561</v>
+      </c>
+      <c r="O11">
+        <v>308931757.7601988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2">
+        <v>49309</v>
+      </c>
+      <c r="B12">
+        <v>2683491092.353109</v>
+      </c>
+      <c r="C12">
+        <v>842432398.752656</v>
+      </c>
+      <c r="D12">
+        <v>196513776.5507277</v>
+      </c>
+      <c r="E12">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1551337595.552864</v>
+      </c>
+      <c r="H12">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1439488809.756631</v>
+      </c>
+      <c r="K12">
+        <v>489426195.3172545</v>
+      </c>
+      <c r="L12">
+        <v>950062614.4393764</v>
+      </c>
+      <c r="M12">
+        <v>250243016.754773</v>
+      </c>
+      <c r="N12">
+        <v>811668383.4808367</v>
+      </c>
+      <c r="O12">
+        <v>284484816.8119565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2">
+        <v>49674</v>
+      </c>
+      <c r="B13">
+        <v>2678084944.923654</v>
+      </c>
+      <c r="C13">
+        <v>839619983.7401615</v>
+      </c>
+      <c r="D13">
+        <v>197026215.6527053</v>
+      </c>
+      <c r="E13">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1548231424.033926</v>
+      </c>
+      <c r="H13">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1436382638.237692</v>
+      </c>
+      <c r="K13">
+        <v>488370097.0008153</v>
+      </c>
+      <c r="L13">
+        <v>948012541.2368768</v>
+      </c>
+      <c r="M13">
+        <v>240131886.5187935</v>
+      </c>
+      <c r="N13">
+        <v>819729440.5143169</v>
+      </c>
+      <c r="O13">
+        <v>261191061.9323298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2">
+        <v>50040</v>
+      </c>
+      <c r="B14">
+        <v>2637530716.79915</v>
+      </c>
+      <c r="C14">
+        <v>819585162.4338658</v>
+      </c>
+      <c r="D14">
+        <v>197163807.7861018</v>
+      </c>
+      <c r="E14">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1527574425.082321</v>
+      </c>
+      <c r="H14">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1415725639.286087</v>
+      </c>
+      <c r="K14">
+        <v>481346717.3572696</v>
+      </c>
+      <c r="L14">
+        <v>934378921.9288176</v>
+      </c>
+      <c r="M14">
+        <v>230020756.282814</v>
+      </c>
+      <c r="N14">
+        <v>816206951.4422371</v>
+      </c>
+      <c r="O14">
+        <v>236426080.3262884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2">
+        <v>50405</v>
+      </c>
+      <c r="B15">
+        <v>2492673827.173043</v>
+      </c>
+      <c r="C15">
+        <v>748042912.9452748</v>
+      </c>
+      <c r="D15">
+        <v>194598036.9405087</v>
+      </c>
+      <c r="E15">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1456825555.790398</v>
+      </c>
+      <c r="H15">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1344976769.994165</v>
+      </c>
+      <c r="K15">
+        <v>457292101.798016</v>
+      </c>
+      <c r="L15">
+        <v>887684668.1961488</v>
+      </c>
+      <c r="M15">
+        <v>219909626.0468345</v>
+      </c>
+      <c r="N15">
+        <v>779623827.9455478</v>
+      </c>
+      <c r="O15">
+        <v>205299320.4998084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2">
+        <v>50770</v>
+      </c>
+      <c r="B16">
+        <v>2300762179.206366</v>
+      </c>
+      <c r="C16">
+        <v>663215400.1822921</v>
+      </c>
+      <c r="D16">
+        <v>191362798.9726272</v>
+      </c>
+      <c r="E16">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1352976658.554585</v>
+      </c>
+      <c r="H16">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1241127872.758352</v>
+      </c>
+      <c r="K16">
+        <v>421983476.7378396</v>
+      </c>
+      <c r="L16">
+        <v>819144396.0205123</v>
+      </c>
+      <c r="M16">
+        <v>209798495.810855</v>
+      </c>
+      <c r="N16">
+        <v>721194686.0058908</v>
+      </c>
+      <c r="O16">
+        <v>172648273.8771005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2">
+        <v>51135</v>
+      </c>
+      <c r="B17">
+        <v>2022698633.60465</v>
+      </c>
+      <c r="C17">
+        <v>553962434.7932858</v>
+      </c>
+      <c r="D17">
+        <v>186029319.9946001</v>
+      </c>
+      <c r="E17">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1189499557.319903</v>
+      </c>
+      <c r="H17">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1077650771.52367</v>
+      </c>
+      <c r="K17">
+        <v>366401262.3180476</v>
+      </c>
+      <c r="L17">
+        <v>711249509.2056221</v>
+      </c>
+      <c r="M17">
+        <v>199687365.5748754</v>
+      </c>
+      <c r="N17">
+        <v>623410929.4269801</v>
+      </c>
+      <c r="O17">
+        <v>135672381.813327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2">
+        <v>51501</v>
+      </c>
+      <c r="B18">
+        <v>1765199975.699934</v>
+      </c>
+      <c r="C18">
+        <v>452879796.1658264</v>
+      </c>
+      <c r="D18">
+        <v>180628084.6681924</v>
+      </c>
+      <c r="E18">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1038484773.369053</v>
+      </c>
+      <c r="H18">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>926635987.5728199</v>
+      </c>
+      <c r="K18">
+        <v>315056235.7747588</v>
+      </c>
+      <c r="L18">
+        <v>611579751.7980611</v>
+      </c>
+      <c r="M18">
+        <v>189576235.3388959</v>
+      </c>
+      <c r="N18">
+        <v>533852302.2553986</v>
+      </c>
+      <c r="O18">
+        <v>105619831.9812941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2">
+        <v>51866</v>
+      </c>
+      <c r="B19">
+        <v>1541099104.083264</v>
+      </c>
+      <c r="C19">
+        <v>370779686.4037333</v>
+      </c>
+      <c r="D19">
+        <v>173646111.0570371</v>
+      </c>
+      <c r="E19">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>903465985.1256328</v>
+      </c>
+      <c r="H19">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>791617199.3293993</v>
+      </c>
+      <c r="K19">
+        <v>269149847.7719958</v>
+      </c>
+      <c r="L19">
+        <v>522467351.5574036</v>
+      </c>
+      <c r="M19">
+        <v>179465105.1029164</v>
+      </c>
+      <c r="N19">
+        <v>454851032.2507206</v>
+      </c>
+      <c r="O19">
+        <v>81808956.24957129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2">
+        <v>52231</v>
+      </c>
+      <c r="B20">
+        <v>1376307492.307284</v>
+      </c>
+      <c r="C20">
+        <v>322586108.7364562</v>
+      </c>
+      <c r="D20">
+        <v>169166607.9673764</v>
+      </c>
+      <c r="E20">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>791347454.1065903</v>
+      </c>
+      <c r="H20">
+        <v>111848785.7962335</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>679498668.3103569</v>
+      </c>
+      <c r="K20">
+        <v>231029547.2255213</v>
+      </c>
+      <c r="L20">
+        <v>448469121.0848355</v>
+      </c>
+      <c r="M20">
+        <v>169353974.8669369</v>
+      </c>
+      <c r="N20">
+        <v>390963932.014132</v>
+      </c>
+      <c r="O20">
+        <v>63925727.00928167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2">
+        <v>52596</v>
+      </c>
+      <c r="B21">
+        <v>1231850193.983445</v>
+      </c>
+      <c r="C21">
+        <v>280325258.5871425</v>
+      </c>
+      <c r="D21">
+        <v>165802037.5397729</v>
+      </c>
+      <c r="E21">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>692515576.3596685</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>692515576.3596685</v>
+      </c>
+      <c r="K21">
+        <v>235455295.9622873</v>
+      </c>
+      <c r="L21">
+        <v>457060280.3973812</v>
+      </c>
+      <c r="M21">
+        <v>62425183.33333333</v>
+      </c>
+      <c r="N21">
+        <v>394635097.0640479</v>
+      </c>
+      <c r="O21">
+        <v>58659992.57326008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2">
+        <v>52962</v>
+      </c>
+      <c r="B22">
+        <v>1244131579.976998</v>
+      </c>
+      <c r="C22">
+        <v>284016502.5917537</v>
+      </c>
+      <c r="D22">
+        <v>168178023.916769</v>
+      </c>
+      <c r="E22">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>698729731.9716144</v>
+      </c>
+      <c r="H22">
+        <v>4161678.888888888</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>694568053.0827255</v>
+      </c>
+      <c r="K22">
+        <v>236153138.0481267</v>
+      </c>
+      <c r="L22">
+        <v>458414915.0345988</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>462576593.9234877</v>
+      </c>
+      <c r="O22">
+        <v>62508239.23621651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2">
+        <v>53327</v>
+      </c>
+      <c r="B23">
+        <v>1162030073.292338</v>
+      </c>
+      <c r="C23">
+        <v>259998984.0776032</v>
+      </c>
+      <c r="D23">
+        <v>166390141.6171716</v>
+      </c>
+      <c r="E23">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>642433626.1007024</v>
+      </c>
+      <c r="H23">
+        <v>8323357.777777776</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>634110268.3229246</v>
+      </c>
+      <c r="K23">
+        <v>215597491.2297944</v>
+      </c>
+      <c r="L23">
+        <v>418512777.0931302</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>426836134.870908</v>
+      </c>
+      <c r="O23">
+        <v>52435100.54463997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2">
+        <v>53692</v>
+      </c>
+      <c r="B24">
+        <v>1020176233.810836</v>
+      </c>
+      <c r="C24">
+        <v>218548127.2051031</v>
+      </c>
+      <c r="D24">
+        <v>161474039.8225623</v>
+      </c>
+      <c r="E24">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>546946745.2863095</v>
+      </c>
+      <c r="H24">
+        <v>12485036.66666666</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>534461708.6196428</v>
+      </c>
+      <c r="K24">
+        <v>181716980.9306785</v>
+      </c>
+      <c r="L24">
+        <v>352744727.6889642</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>365229764.3556309</v>
+      </c>
+      <c r="O24">
+        <v>40788187.25486398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>54057</v>
+      </c>
+      <c r="B25">
+        <v>909957469.6179662</v>
+      </c>
+      <c r="C25">
+        <v>186356509.6742948</v>
+      </c>
+      <c r="D25">
+        <v>154341843.555205</v>
+      </c>
+      <c r="E25">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>476051794.8916051</v>
+      </c>
+      <c r="H25">
+        <v>16646715.55555555</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>459405079.3360496</v>
+      </c>
+      <c r="K25">
+        <v>156197726.9742568</v>
+      </c>
+      <c r="L25">
+        <v>303207352.3617927</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>319854067.9173483</v>
+      </c>
+      <c r="O25">
+        <v>32473375.5163687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
+        <v>54423</v>
+      </c>
+      <c r="B26">
+        <v>752114584.8750645</v>
+      </c>
+      <c r="C26">
+        <v>145031401.1600155</v>
+      </c>
+      <c r="D26">
+        <v>143691934.1221154</v>
+      </c>
+      <c r="E26">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>370183928.0960724</v>
+      </c>
+      <c r="H26">
+        <v>20808394.44444444</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>349375533.651628</v>
+      </c>
+      <c r="K26">
+        <v>118787681.4415535</v>
+      </c>
+      <c r="L26">
+        <v>230587852.2100745</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>251396246.6545189</v>
+      </c>
+      <c r="O26">
+        <v>23202867.52294622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
+        <v>54788</v>
+      </c>
+      <c r="B27">
+        <v>643900576.2802573</v>
+      </c>
+      <c r="C27">
+        <v>123950860.9339495</v>
+      </c>
+      <c r="D27">
+        <v>135159560.959478</v>
+      </c>
+      <c r="E27">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>291582832.8899686</v>
+      </c>
+      <c r="H27">
+        <v>24970073.33333333</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>266612759.5566353</v>
+      </c>
+      <c r="K27">
+        <v>90648338.24925599</v>
+      </c>
+      <c r="L27">
+        <v>175964421.3073793</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>200934494.6407126</v>
+      </c>
+      <c r="O27">
+        <v>16859499.77369863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2">
+        <v>55153</v>
+      </c>
+      <c r="B28">
+        <v>569080515.7221755</v>
+      </c>
+      <c r="C28">
+        <v>109547999.2765188</v>
+      </c>
+      <c r="D28">
+        <v>129227129.0431358</v>
+      </c>
+      <c r="E28">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>237098065.9056597</v>
+      </c>
+      <c r="H28">
+        <v>29131752.22222222</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>207966313.6834375</v>
+      </c>
+      <c r="K28">
+        <v>70708546.65236874</v>
+      </c>
+      <c r="L28">
+        <v>137257767.0310687</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>166389519.253291</v>
+      </c>
+      <c r="O28">
+        <v>12691807.24436719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2">
+        <v>55518</v>
+      </c>
+      <c r="B29">
+        <v>511051870.0275112</v>
+      </c>
+      <c r="C29">
+        <v>98377484.98029591</v>
+      </c>
+      <c r="D29">
+        <v>124498261.3485017</v>
+      </c>
+      <c r="E29">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>194968802.2018524</v>
+      </c>
+      <c r="H29">
+        <v>33293431.1111111</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>161675371.0907413</v>
+      </c>
+      <c r="K29">
+        <v>54969626.17085205</v>
+      </c>
+      <c r="L29">
+        <v>106705744.9198893</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>139999176.0310004</v>
+      </c>
+      <c r="O29">
+        <v>9708011.792447537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2">
+        <v>55884</v>
+      </c>
+      <c r="B30">
+        <v>465107649.9600757</v>
+      </c>
+      <c r="C30">
+        <v>89533222.61731458</v>
+      </c>
+      <c r="D30">
+        <v>120947380.457998</v>
+      </c>
+      <c r="E30">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>161419725.3879019</v>
+      </c>
+      <c r="H30">
+        <v>37455109.99999999</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>123964615.3879019</v>
+      </c>
+      <c r="K30">
+        <v>42147969.23188664</v>
+      </c>
+      <c r="L30">
+        <v>81816646.15601526</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>119271756.1560152</v>
+      </c>
+      <c r="O30">
+        <v>7518820.974489997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2">
+        <v>56249</v>
+      </c>
+      <c r="B31">
+        <v>425629374.4545255</v>
+      </c>
+      <c r="C31">
+        <v>81933654.58249617</v>
+      </c>
+      <c r="D31">
+        <v>117325973.4357183</v>
+      </c>
+      <c r="E31">
+        <v>93207321.49686123</v>
+      </c>
+      <c r="F31">
+        <v>790658571.9748899</v>
+      </c>
+      <c r="G31">
+        <v>-657496147.03544</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>-657496147.03544</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>-657496147.03544</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>-657496147.03544</v>
+      </c>
+      <c r="O31">
+        <v>-37680152.98769307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>